--- a/data/kbvreport_export/faktenblatttabellen_2022-07-24.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2022-07-24.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t xml:space="preserve">Geimpfte Personen</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Vorwoche</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 28.7.</t>
+    <t xml:space="preserve">Stand 29.7.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">64722823 (77,8 %)</t>
+    <t xml:space="preserve">64724010 (77,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">64729399 (77,8 %)</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">3635597 ( 4,4 %)</t>
+    <t xml:space="preserve">3635050 ( 4,4 %)</t>
   </si>
   <si>
     <t xml:space="preserve">3633325 ( 4,4 %)</t>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">61087226 (73,5 %)</t>
+    <t xml:space="preserve">61088960 (73,5 %)</t>
   </si>
   <si>
     <t xml:space="preserve">61096074 (73,5 %)</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Zusätzl. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">51389899 (61,8 %)</t>
+    <t xml:space="preserve">51398024 (61,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">51423882 (61,8 %)</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Zusätzl. 2. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">6363045 ( 7,7 %)</t>
+    <t xml:space="preserve">6414930 ( 7,7 %)</t>
   </si>
   <si>
     <t xml:space="preserve">6559161 ( 7,9 %)</t>
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Biontech/Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">135564645 (69,8 %)</t>
+    <t xml:space="preserve">135619713 (69,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">135779142 (69,9 %)</t>
@@ -378,7 +378,7 @@
     <t xml:space="preserve">Erstimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">46533358</t>
+    <t xml:space="preserve">46534346</t>
   </si>
   <si>
     <t xml:space="preserve">46538667</t>
@@ -387,7 +387,7 @@
     <t xml:space="preserve">Zweitimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">51137397</t>
+    <t xml:space="preserve">51138903</t>
   </si>
   <si>
     <t xml:space="preserve">51145122</t>
@@ -396,7 +396,7 @@
     <t xml:space="preserve">Booster</t>
   </si>
   <si>
-    <t xml:space="preserve">32701356</t>
+    <t xml:space="preserve">32708699</t>
   </si>
   <si>
     <t xml:space="preserve">32732123</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">2. Booster</t>
   </si>
   <si>
-    <t xml:space="preserve">5192534</t>
+    <t xml:space="preserve">5237765</t>
   </si>
   <si>
     <t xml:space="preserve">5363230</t>
@@ -423,31 +423,31 @@
     <t xml:space="preserve">Moderna</t>
   </si>
   <si>
-    <t xml:space="preserve">31321479 (16,1 %)</t>
+    <t xml:space="preserve">31329041 (16,1 %)</t>
   </si>
   <si>
     <t xml:space="preserve">31350598 (16,1 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">5139244</t>
+    <t xml:space="preserve">5139342</t>
   </si>
   <si>
     <t xml:space="preserve">5139607</t>
   </si>
   <si>
-    <t xml:space="preserve">6364444</t>
+    <t xml:space="preserve">6364560</t>
   </si>
   <si>
     <t xml:space="preserve">6364993</t>
   </si>
   <si>
-    <t xml:space="preserve">18655832</t>
+    <t xml:space="preserve">18656573</t>
   </si>
   <si>
     <t xml:space="preserve">18658813</t>
   </si>
   <si>
-    <t xml:space="preserve">1161959</t>
+    <t xml:space="preserve">1168566</t>
   </si>
   <si>
     <t xml:space="preserve">1187185</t>
@@ -495,13 +495,13 @@
     <t xml:space="preserve">Johnson&amp;Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">3748532 ( 1,9 %)</t>
+    <t xml:space="preserve">3748596 ( 1,9 %)</t>
   </si>
   <si>
     <t xml:space="preserve">3749113 ( 1,9 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">3710660</t>
+    <t xml:space="preserve">3710692</t>
   </si>
   <si>
     <t xml:space="preserve">3711154</t>
@@ -513,13 +513,13 @@
     <t xml:space="preserve">12016</t>
   </si>
   <si>
-    <t xml:space="preserve">20317</t>
+    <t xml:space="preserve">20323</t>
   </si>
   <si>
     <t xml:space="preserve">20335</t>
   </si>
   <si>
-    <t xml:space="preserve">5559</t>
+    <t xml:space="preserve">5585</t>
   </si>
   <si>
     <t xml:space="preserve">5608</t>
@@ -534,31 +534,31 @@
     <t xml:space="preserve">Novavax</t>
   </si>
   <si>
-    <t xml:space="preserve">133628 ( 0,1 %)</t>
+    <t xml:space="preserve">133865 ( 0,1 %)</t>
   </si>
   <si>
     <t xml:space="preserve">134939 ( 0,1 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">67012</t>
+    <t xml:space="preserve">67081</t>
   </si>
   <si>
     <t xml:space="preserve">67414</t>
   </si>
   <si>
-    <t xml:space="preserve">60030</t>
+    <t xml:space="preserve">60142</t>
   </si>
   <si>
     <t xml:space="preserve">60584</t>
   </si>
   <si>
-    <t xml:space="preserve">4392</t>
+    <t xml:space="preserve">4427</t>
   </si>
   <si>
     <t xml:space="preserve">4607</t>
   </si>
   <si>
-    <t xml:space="preserve">2194</t>
+    <t xml:space="preserve">2215</t>
   </si>
   <si>
     <t xml:space="preserve">2334</t>
@@ -654,10 +654,10 @@
     <t xml:space="preserve">809</t>
   </si>
   <si>
-    <t xml:space="preserve">746</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7,8 %</t>
+    <t xml:space="preserve">749</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -7,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon Unter-4-Jährige</t>
@@ -678,10 +678,10 @@
     <t xml:space="preserve">651</t>
   </si>
   <si>
-    <t xml:space="preserve">533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18,1 %</t>
+    <t xml:space="preserve">535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 15-bis-34-Jährige</t>
@@ -690,118 +690,121 @@
     <t xml:space="preserve">996</t>
   </si>
   <si>
-    <t xml:space="preserve">893</t>
+    <t xml:space="preserve">896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon 35-bis-59-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">943</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon Über-80-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue hospitalisierte Fälle je 100.000 EW in 7 Tagen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon über 80-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitalisierungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7137 ( 1,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7660 ( 1,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davon unter 4-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279 ( 3,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284 ( 2,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davon 5- bis 14-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137 ( 0,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davon 15- bis 34-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">765 ( 0,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">686 ( 0,4%)</t>
   </si>
   <si>
     <t xml:space="preserve">-10,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon 35-bis-59-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">940</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon Über-80-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue hospitalisierte Fälle je 100.000 EW in 7 Tagen:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon über 80-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55,89</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitalisierungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7137 ( 1,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7660 ( 1,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davon unter 4-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">279 ( 3,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284 ( 2,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davon 5- bis 14-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137 ( 0,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davon 15- bis 34-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">765 ( 0,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">686 ( 0,4%)</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 35- bis 59-Jährige</t>
@@ -904,34 +907,34 @@
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">88 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34,1%</t>
+    <t xml:space="preserve">89 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34,8%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">199 ( 1,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282 ( 1,6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41,7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35,3%</t>
+    <t xml:space="preserve">202 ( 1,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287 ( 1,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35,8%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -982,268 +985,295 @@
     <t xml:space="preserve">Inzidenzprojektion</t>
   </si>
   <si>
-    <t xml:space="preserve">36,9 %</t>
+    <t xml:space="preserve">37,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,1 %</t>
   </si>
   <si>
     <t xml:space="preserve">0,96</t>
   </si>
   <si>
-    <t xml:space="preserve">10,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.04.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,0 %</t>
+    <t xml:space="preserve"> 8,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.05.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.11.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wird nicht erreicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.10.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.03.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,91</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.11.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">0,97</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.06.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wird nicht erreicht</t>
+    <t xml:space="preserve">11,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,4</t>
   </si>
   <si>
     <t xml:space="preserve">32,1 %</t>
   </si>
   <si>
-    <t xml:space="preserve">0,92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.10.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.06.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,87</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.09.2022</t>
+    <t xml:space="preserve">0,88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fälle gesamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anteil Bevölk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl Fälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todesfälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallsterblichkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl Todesfälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länder nach neuen Fällen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue Fälle je 100.000 EW in 14 Tagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länder nach neuen Todesfällen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todesfälle je 100.000 EW in 14 Tagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Österreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vereinigtes Königreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niederlande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutschland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,0</t>
   </si>
   <si>
     <t xml:space="preserve">36,3 %</t>
   </si>
   <si>
-    <t xml:space="preserve">0,93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.01.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.12.2022</t>
+    <t xml:space="preserve">0,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,6</t>
   </si>
   <si>
     <t xml:space="preserve">34,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.11.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.07.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.04.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.10.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fälle gesamt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anteil Bevölk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anzahl Fälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todesfälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallsterblichkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anzahl Todesfälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länder nach neuen Fällen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue Fälle je 100.000 EW in 14 Tagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länder nach neuen Todesfällen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todesfälle je 100.000 EW in 14 Tagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Österreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vereinigtes Königreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niederlande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutschland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,6</t>
   </si>
   <si>
     <t xml:space="preserve">1,4</t>
@@ -1715,10 +1745,10 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>46</v>
@@ -1730,7 +1760,7 @@
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
@@ -1738,22 +1768,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D2" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F2" t="n">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
@@ -1761,22 +1791,22 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D3" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F3" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4">
@@ -1784,22 +1814,22 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D4" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F4" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
@@ -1807,22 +1837,22 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D5" t="n">
         <v>340</v>
       </c>
       <c r="E5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F5" t="n">
         <v>446</v>
       </c>
       <c r="G5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6">
@@ -1830,22 +1860,22 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D6" t="n">
         <v>391</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F6" t="n">
         <v>543</v>
       </c>
       <c r="G6" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7">
@@ -1853,22 +1883,22 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D7" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F7" t="n">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
@@ -1876,22 +1906,22 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D8" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F8" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9">
@@ -1899,22 +1929,22 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D9" t="n">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F9" t="n">
-        <v>988</v>
+        <v>1009</v>
       </c>
       <c r="G9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -1922,22 +1952,22 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="D10" t="n">
         <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F10" t="n">
         <v>596</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11">
@@ -1945,22 +1975,22 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="D11" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E11" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F11" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G11" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12">
@@ -1968,22 +1998,22 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D12" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E12" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F12" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G12" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
@@ -1991,22 +2021,22 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="D13" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F13" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G13" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14">
@@ -2014,22 +2044,22 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="D14" t="n">
         <v>731</v>
       </c>
       <c r="E14" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F14" t="n">
         <v>1065</v>
       </c>
       <c r="G14" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15">
@@ -2037,22 +2067,22 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="D15" t="n">
         <v>498</v>
       </c>
       <c r="E15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F15" t="n">
         <v>610</v>
       </c>
       <c r="G15" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16">
@@ -2060,22 +2090,22 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="D16" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E16" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F16" t="n">
         <v>531</v>
       </c>
       <c r="G16" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17">
@@ -2083,22 +2113,22 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C17" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D17" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E17" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F17" t="n">
         <v>605</v>
       </c>
       <c r="G17" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18">
@@ -2106,22 +2136,22 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D18" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E18" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F18" t="n">
         <v>430</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2140,354 +2170,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="I1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="J1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C2" t="n">
         <v>4704616</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F2" t="n">
         <v>116510</v>
       </c>
       <c r="G2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H2" t="n">
         <v>2016</v>
       </c>
       <c r="I2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="J2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C3" t="n">
         <v>5317004</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F3" t="n">
         <v>110187</v>
       </c>
       <c r="G3" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H3" t="n">
         <v>2000</v>
       </c>
       <c r="I3" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="J3" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C4" t="n">
         <v>33621366</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F4" t="n">
         <v>170875</v>
       </c>
       <c r="G4" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H4" t="n">
         <v>1816</v>
       </c>
       <c r="I4" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J4" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C5" t="n">
         <v>8413961</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F5" t="n">
         <v>183416</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H5" t="n">
         <v>1563</v>
       </c>
       <c r="I5" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J5" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C6" t="n">
         <v>4381331</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F6" t="n">
         <v>32118</v>
       </c>
       <c r="G6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H6" t="n">
         <v>749</v>
       </c>
       <c r="I6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="C7" t="n">
         <v>30331133</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F7" t="n">
         <v>143177</v>
       </c>
       <c r="G7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H7" t="n">
         <v>732</v>
       </c>
       <c r="I7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="C8" t="n">
         <v>23422751</v>
       </c>
       <c r="D8" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F8" t="n">
         <v>24528</v>
       </c>
       <c r="G8" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>496</v>
       </c>
       <c r="I8" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J8" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C9" t="n">
         <v>20660065</v>
       </c>
       <c r="D9" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E9" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F9" t="n">
         <v>152390</v>
       </c>
       <c r="G9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H9" t="n">
         <v>495</v>
       </c>
       <c r="I9" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J9" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C10" t="n">
         <v>13204863</v>
       </c>
       <c r="D10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F10" t="n">
         <v>20226</v>
       </c>
       <c r="G10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H10" t="n">
         <v>443</v>
       </c>
       <c r="I10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="J10" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C11" t="n">
         <v>6049052</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E11" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F11" t="n">
         <v>23086</v>
       </c>
       <c r="G11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H11" t="n">
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J11" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2628,10 +2658,10 @@
         <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="G2" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3">
@@ -2651,10 +2681,10 @@
         <v>53</v>
       </c>
       <c r="F3" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G3" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4">
@@ -2674,10 +2704,10 @@
         <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G4" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5">
@@ -2743,10 +2773,10 @@
         <v>69</v>
       </c>
       <c r="F7" t="n">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G7" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8">
@@ -2766,10 +2796,10 @@
         <v>73</v>
       </c>
       <c r="F8" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G8" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9">
@@ -2789,10 +2819,10 @@
         <v>77</v>
       </c>
       <c r="F9" t="n">
-        <v>988</v>
+        <v>1009</v>
       </c>
       <c r="G9" t="n">
-        <v>674</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10">
@@ -2835,10 +2865,10 @@
         <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G11" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12">
@@ -2858,10 +2888,10 @@
         <v>88</v>
       </c>
       <c r="F12" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G12" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13">
@@ -2881,10 +2911,10 @@
         <v>92</v>
       </c>
       <c r="F13" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G13" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14">
@@ -2953,7 +2983,7 @@
         <v>531</v>
       </c>
       <c r="G16" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17">
@@ -2976,7 +3006,7 @@
         <v>605</v>
       </c>
       <c r="G17" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18">
@@ -2999,7 +3029,7 @@
         <v>430</v>
       </c>
       <c r="G18" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3720,49 +3750,49 @@
         <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +3811,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3795,44 +3825,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3851,13 +3881,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3865,44 +3895,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5">
@@ -3910,18 +3940,18 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -3929,44 +3959,44 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10">
@@ -3974,13 +4004,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
